--- a/Documentation/RACI.xlsx
+++ b/Documentation/RACI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\P.Annuel2022\HoneypotsMonit\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B400FC2-41E6-466F-9524-9A8C7A2EAD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BB5807-74BB-47AA-A27B-04BA43324268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
